--- a/medicine/Psychotrope/Nordbräu_Ingolstadt/Nordbräu_Ingolstadt.xlsx
+++ b/medicine/Psychotrope/Nordbräu_Ingolstadt/Nordbräu_Ingolstadt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nordbr%C3%A4u_Ingolstadt</t>
+          <t>Nordbräu_Ingolstadt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Nordbräu Ingolstadt GmbH &amp; Co. KG est une brasserie à Ingolstadt, dans le Land de Bavière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nordbr%C3%A4u_Ingolstadt</t>
+          <t>Nordbräu_Ingolstadt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une brasserie se trouve au château d'Oberhaunstadt en 1569. À partir de 1693, les jésuites brassent de la bière brune sur le site actuel de la brasserie[1]. En 1833, la famille Wittmann reprend la brasserie[2]. En 1865, la brasserie d'Oberhaunstadt reprend la Ziegelbräu à Ingolstadt, puis en 1871 la Lindermeierbräu. Avec l'incorporation d'Oberhaunstadt à Ingolstadt en 1972, la brasserie d'Oberhaunstadt est rebaptisée Nordbräu[1]. Avec plus de 120 employés, la brasserie d'Oberhaunstadt est le plus gros employeur du quartier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une brasserie se trouve au château d'Oberhaunstadt en 1569. À partir de 1693, les jésuites brassent de la bière brune sur le site actuel de la brasserie. En 1833, la famille Wittmann reprend la brasserie. En 1865, la brasserie d'Oberhaunstadt reprend la Ziegelbräu à Ingolstadt, puis en 1871 la Lindermeierbräu. Avec l'incorporation d'Oberhaunstadt à Ingolstadt en 1972, la brasserie d'Oberhaunstadt est rebaptisée Nordbräu. Avec plus de 120 employés, la brasserie d'Oberhaunstadt est le plus gros employeur du quartier.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nordbr%C3%A4u_Ingolstadt</t>
+          <t>Nordbräu_Ingolstadt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De plus, Nordbräu produit des boissons non alcoolisées sous la marque Jesuiten-Quelle depuis 1993.
 </t>
